--- a/CipherCracker/resources/results/sampleencryption/1crib 175/graph175crib.xlsx
+++ b/CipherCracker/resources/results/sampleencryption/1crib 175/graph175crib.xlsx
@@ -925,6 +925,7 @@
         <c:axId val="586530728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1763,15 +1764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2062,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="S124" sqref="S124"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
